--- a/data/pca/factorExposure/factorExposure_2011-04-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.006848793383098505</v>
+        <v>-0.01203794025759554</v>
       </c>
       <c r="C2">
-        <v>-0.006783300002194835</v>
+        <v>-0.002063005823586881</v>
       </c>
       <c r="D2">
-        <v>-0.04566154164949764</v>
+        <v>0.0002861447453283234</v>
       </c>
       <c r="E2">
-        <v>0.002120091563302483</v>
+        <v>0.01850379416387746</v>
       </c>
       <c r="F2">
-        <v>0.01006482535553135</v>
+        <v>-0.02746067345025755</v>
       </c>
       <c r="G2">
-        <v>-0.01536436177342687</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.00379765558435677</v>
+      </c>
+      <c r="H2">
+        <v>-0.01139413469768148</v>
+      </c>
+      <c r="I2">
+        <v>-0.0443458150718304</v>
+      </c>
+      <c r="J2">
+        <v>-0.05955969894845447</v>
+      </c>
+      <c r="K2">
+        <v>-0.002908010464519546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1045206778199475</v>
+        <v>-0.1155465221654781</v>
       </c>
       <c r="C4">
-        <v>-0.02720678231433615</v>
+        <v>-0.05493515058305425</v>
       </c>
       <c r="D4">
-        <v>-0.04673994063225859</v>
+        <v>-0.003638229657908262</v>
       </c>
       <c r="E4">
-        <v>0.06008404691489484</v>
+        <v>0.01002664508468812</v>
       </c>
       <c r="F4">
-        <v>0.03467921725336667</v>
+        <v>-0.02574720485557524</v>
       </c>
       <c r="G4">
-        <v>-0.03034321549075298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.05715547124024267</v>
+      </c>
+      <c r="H4">
+        <v>-0.147144650304098</v>
+      </c>
+      <c r="I4">
+        <v>-0.01144512855051187</v>
+      </c>
+      <c r="J4">
+        <v>0.03644122085695346</v>
+      </c>
+      <c r="K4">
+        <v>0.006017970549860498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1282450244667349</v>
+        <v>-0.1248313195178111</v>
       </c>
       <c r="C6">
-        <v>-0.02543783309769709</v>
+        <v>-0.01592483316966094</v>
       </c>
       <c r="D6">
-        <v>-0.02627716196632466</v>
+        <v>0.004030432385843077</v>
       </c>
       <c r="E6">
-        <v>-0.007692843587125616</v>
+        <v>-0.02392442336083956</v>
       </c>
       <c r="F6">
-        <v>-0.1415213076779158</v>
+        <v>-0.001573223680224646</v>
       </c>
       <c r="G6">
-        <v>0.1480388721315164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.08058061018449487</v>
+      </c>
+      <c r="H6">
+        <v>-0.0347304506306053</v>
+      </c>
+      <c r="I6">
+        <v>0.2066578777241701</v>
+      </c>
+      <c r="J6">
+        <v>0.3244406422850273</v>
+      </c>
+      <c r="K6">
+        <v>-0.2270424946097697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.09134972214944205</v>
+        <v>-0.07644108024758134</v>
       </c>
       <c r="C7">
-        <v>-0.04194525497019222</v>
+        <v>-0.06198923351947896</v>
       </c>
       <c r="D7">
-        <v>-0.03982823247918507</v>
+        <v>0.02377769294293836</v>
       </c>
       <c r="E7">
-        <v>0.02455131830353504</v>
+        <v>0.01933498380710843</v>
       </c>
       <c r="F7">
-        <v>-0.02511515877153912</v>
+        <v>-0.04456959369463399</v>
       </c>
       <c r="G7">
-        <v>-0.0288033890442066</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02121835887004725</v>
+      </c>
+      <c r="H7">
+        <v>-0.04817869438697854</v>
+      </c>
+      <c r="I7">
+        <v>0.007029604301749324</v>
+      </c>
+      <c r="J7">
+        <v>0.0110138749264394</v>
+      </c>
+      <c r="K7">
+        <v>0.1055503148531971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04348298251167934</v>
+        <v>-0.05276735972871877</v>
       </c>
       <c r="C8">
-        <v>0.02245093001663987</v>
+        <v>-0.01229081812128852</v>
       </c>
       <c r="D8">
-        <v>-0.0835312163486622</v>
+        <v>0.01574289903971717</v>
       </c>
       <c r="E8">
-        <v>0.08887455582363597</v>
+        <v>0.01007190984043907</v>
       </c>
       <c r="F8">
-        <v>0.01305256620453732</v>
+        <v>-0.01454420914200408</v>
       </c>
       <c r="G8">
-        <v>-0.1245259664434292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.08090164113224714</v>
+      </c>
+      <c r="H8">
+        <v>-0.1260762705310871</v>
+      </c>
+      <c r="I8">
+        <v>-0.01101518932181339</v>
+      </c>
+      <c r="J8">
+        <v>0.03264691806606481</v>
+      </c>
+      <c r="K8">
+        <v>0.01695541367647794</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.09492637156582355</v>
+        <v>-0.08659521503327497</v>
       </c>
       <c r="C9">
-        <v>-0.03609014396791492</v>
+        <v>-0.05169108638566623</v>
       </c>
       <c r="D9">
-        <v>-0.03788996741323981</v>
+        <v>0.00536478474448383</v>
       </c>
       <c r="E9">
-        <v>0.04823627032965398</v>
+        <v>0.01740930390099735</v>
       </c>
       <c r="F9">
-        <v>0.02089648078794405</v>
+        <v>-0.01487803784931152</v>
       </c>
       <c r="G9">
-        <v>-0.06825972627967669</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.0571033893401654</v>
+      </c>
+      <c r="H9">
+        <v>-0.1277055601137224</v>
+      </c>
+      <c r="I9">
+        <v>0.009449374029096519</v>
+      </c>
+      <c r="J9">
+        <v>0.007867139163745233</v>
+      </c>
+      <c r="K9">
+        <v>-0.004707482513788302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.03753157036391634</v>
+        <v>-0.09053850218935941</v>
       </c>
       <c r="C10">
-        <v>0.1572060875889175</v>
+        <v>0.1764290480626686</v>
       </c>
       <c r="D10">
-        <v>-0.09438858739779578</v>
+        <v>-0.03061298468452277</v>
       </c>
       <c r="E10">
-        <v>0.02600564285385698</v>
+        <v>0.02548067707450028</v>
       </c>
       <c r="F10">
-        <v>-0.03748140671387861</v>
+        <v>-0.05336060742466717</v>
       </c>
       <c r="G10">
-        <v>-0.01107593181925418</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.004322750870256818</v>
+      </c>
+      <c r="H10">
+        <v>0.01003377727201768</v>
+      </c>
+      <c r="I10">
+        <v>0.01675472821847995</v>
+      </c>
+      <c r="J10">
+        <v>0.04911655098275348</v>
+      </c>
+      <c r="K10">
+        <v>0.0464460188146323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.07711957348415764</v>
+        <v>-0.07711361604124042</v>
       </c>
       <c r="C11">
-        <v>-0.06052979097016852</v>
+        <v>-0.05922164833890085</v>
       </c>
       <c r="D11">
-        <v>-0.01018780807328177</v>
+        <v>0.02660083235822424</v>
       </c>
       <c r="E11">
-        <v>-0.007382695620382159</v>
+        <v>0.02541390078523938</v>
       </c>
       <c r="F11">
-        <v>0.0130898472965592</v>
+        <v>0.01096325296203305</v>
       </c>
       <c r="G11">
-        <v>-0.1614982701679406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.06372624371567483</v>
+      </c>
+      <c r="H11">
+        <v>-0.121768843368335</v>
+      </c>
+      <c r="I11">
+        <v>0.0005103910542114599</v>
+      </c>
+      <c r="J11">
+        <v>-0.1032428082813939</v>
+      </c>
+      <c r="K11">
+        <v>0.01757157540772593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.07285184911197073</v>
+        <v>-0.07731747988638202</v>
       </c>
       <c r="C12">
-        <v>-0.03884724248400265</v>
+        <v>-0.06598425126986175</v>
       </c>
       <c r="D12">
-        <v>-0.003498814936869473</v>
+        <v>0.03332463701570955</v>
       </c>
       <c r="E12">
-        <v>0.03168862274124266</v>
+        <v>0.05027116598494372</v>
       </c>
       <c r="F12">
-        <v>0.003275726930190768</v>
+        <v>0.01443375183183361</v>
       </c>
       <c r="G12">
-        <v>-0.1512495093219235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.09132532046752644</v>
+      </c>
+      <c r="H12">
+        <v>-0.1095966456232661</v>
+      </c>
+      <c r="I12">
+        <v>0.0239971581906947</v>
+      </c>
+      <c r="J12">
+        <v>-0.101276769004925</v>
+      </c>
+      <c r="K12">
+        <v>0.00906902294086446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.0630933197080185</v>
+        <v>-0.04109603495019029</v>
       </c>
       <c r="C13">
-        <v>-0.004995253522379913</v>
+        <v>-0.02462210101175663</v>
       </c>
       <c r="D13">
-        <v>-0.009243410533080899</v>
+        <v>0.0103710710196917</v>
       </c>
       <c r="E13">
-        <v>0.02130128744374948</v>
+        <v>-0.006220932942917322</v>
       </c>
       <c r="F13">
-        <v>0.03832182457338137</v>
+        <v>-0.02202435297476778</v>
       </c>
       <c r="G13">
-        <v>-0.05942203815385728</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.03576010719282754</v>
+      </c>
+      <c r="H13">
+        <v>-0.05006068791756652</v>
+      </c>
+      <c r="I13">
+        <v>0.02894629971180893</v>
+      </c>
+      <c r="J13">
+        <v>0.04185059675817379</v>
+      </c>
+      <c r="K13">
+        <v>0.0195141299626946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.05390711759612118</v>
+        <v>-0.04418739920260917</v>
       </c>
       <c r="C14">
-        <v>-0.00412560284969456</v>
+        <v>-0.01790408984189892</v>
       </c>
       <c r="D14">
-        <v>-0.03349267570147685</v>
+        <v>-0.007615617793195351</v>
       </c>
       <c r="E14">
-        <v>0.02507041809416865</v>
+        <v>0.01687278361061787</v>
       </c>
       <c r="F14">
-        <v>0.006547322228311002</v>
+        <v>0.004737574019611413</v>
       </c>
       <c r="G14">
-        <v>-0.06343845591171114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04626302119891206</v>
+      </c>
+      <c r="H14">
+        <v>-0.05960937196169179</v>
+      </c>
+      <c r="I14">
+        <v>-0.01565582284847952</v>
+      </c>
+      <c r="J14">
+        <v>0.05171239174939314</v>
+      </c>
+      <c r="K14">
+        <v>0.01818944210743489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.03893354392670732</v>
+        <v>-0.02385045266224254</v>
       </c>
       <c r="C15">
-        <v>0.01194545962732222</v>
+        <v>-0.006802021582338409</v>
       </c>
       <c r="D15">
-        <v>-0.01022016601964284</v>
+        <v>-0.002038798129933649</v>
       </c>
       <c r="E15">
-        <v>0.005299128795395243</v>
+        <v>-0.02343961711909674</v>
       </c>
       <c r="F15">
-        <v>0.02332987280253545</v>
+        <v>-0.02679522200717053</v>
       </c>
       <c r="G15">
-        <v>-0.01937053177173571</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.01758738532486571</v>
+      </c>
+      <c r="H15">
+        <v>-0.01481408561181232</v>
+      </c>
+      <c r="I15">
+        <v>0.007931999868269573</v>
+      </c>
+      <c r="J15">
+        <v>0.05693344701622967</v>
+      </c>
+      <c r="K15">
+        <v>0.02324761454657973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.08034280063075776</v>
+        <v>-0.0833663209479064</v>
       </c>
       <c r="C16">
-        <v>-0.07182565018763026</v>
+        <v>-0.06810216055247303</v>
       </c>
       <c r="D16">
-        <v>-0.01719643980686133</v>
+        <v>0.03722496970900768</v>
       </c>
       <c r="E16">
-        <v>0.03443916365787448</v>
+        <v>0.0322613781980372</v>
       </c>
       <c r="F16">
-        <v>0.03823607572491339</v>
+        <v>0.005411125029237236</v>
       </c>
       <c r="G16">
-        <v>-0.1246119479866085</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.09481276857245294</v>
+      </c>
+      <c r="H16">
+        <v>-0.1090191983425097</v>
+      </c>
+      <c r="I16">
+        <v>0.002668931469378198</v>
+      </c>
+      <c r="J16">
+        <v>-0.111932366022332</v>
+      </c>
+      <c r="K16">
+        <v>0.02846276679978642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.05088343505178199</v>
+        <v>-0.04995984792189345</v>
       </c>
       <c r="C20">
-        <v>-0.02188470787924748</v>
+        <v>-0.03392097742886584</v>
       </c>
       <c r="D20">
-        <v>-0.01752068824174315</v>
+        <v>-0.01625912344810635</v>
       </c>
       <c r="E20">
-        <v>0.02410008267342748</v>
+        <v>-0.005472757105440437</v>
       </c>
       <c r="F20">
-        <v>0.01015822890800356</v>
+        <v>-0.01627008027708303</v>
       </c>
       <c r="G20">
-        <v>-0.1118277079062264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04378193705917895</v>
+      </c>
+      <c r="H20">
+        <v>-0.06396561653237832</v>
+      </c>
+      <c r="I20">
+        <v>-0.009823004907974008</v>
+      </c>
+      <c r="J20">
+        <v>0.0388837488908985</v>
+      </c>
+      <c r="K20">
+        <v>0.05478146042769662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.02640420640343496</v>
+        <v>-0.02787556859655605</v>
       </c>
       <c r="C21">
-        <v>-0.03490507835979738</v>
+        <v>-0.01755688763994527</v>
       </c>
       <c r="D21">
-        <v>0.006889399035992141</v>
+        <v>-0.02900297460979641</v>
       </c>
       <c r="E21">
-        <v>0.0130947829527347</v>
+        <v>-0.01368626661021848</v>
       </c>
       <c r="F21">
-        <v>-0.08807578141407375</v>
+        <v>0.01154325908291554</v>
       </c>
       <c r="G21">
-        <v>0.06813303664779648</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03739982712687496</v>
+      </c>
+      <c r="H21">
+        <v>-0.08480007966274217</v>
+      </c>
+      <c r="I21">
+        <v>0.06134093787253898</v>
+      </c>
+      <c r="J21">
+        <v>0.05373469270271259</v>
+      </c>
+      <c r="K21">
+        <v>0.09742758608135298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.04342759025076722</v>
+        <v>-0.03579985971310249</v>
       </c>
       <c r="C22">
-        <v>-0.002853424592809952</v>
+        <v>-0.01084123231870291</v>
       </c>
       <c r="D22">
-        <v>0.006709283162485733</v>
+        <v>0.05739289202952171</v>
       </c>
       <c r="E22">
-        <v>0.5621410193640943</v>
+        <v>-0.4163464573254424</v>
       </c>
       <c r="F22">
-        <v>0.09960058405210509</v>
+        <v>-0.4939283042792689</v>
       </c>
       <c r="G22">
-        <v>0.3094633380567625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1403505458691908</v>
+      </c>
+      <c r="H22">
+        <v>0.1345589540381433</v>
+      </c>
+      <c r="I22">
+        <v>0.01444540084026253</v>
+      </c>
+      <c r="J22">
+        <v>-0.08375443685744799</v>
+      </c>
+      <c r="K22">
+        <v>-0.03201928194486589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.04353152771575816</v>
+        <v>-0.03600793800851002</v>
       </c>
       <c r="C23">
-        <v>-0.003424605850465614</v>
+        <v>-0.01138636296558559</v>
       </c>
       <c r="D23">
-        <v>0.005155225247857987</v>
+        <v>0.05859031685016219</v>
       </c>
       <c r="E23">
-        <v>0.5612807333547631</v>
+        <v>-0.4177527286258911</v>
       </c>
       <c r="F23">
-        <v>0.100453948877668</v>
+        <v>-0.4957127861418367</v>
       </c>
       <c r="G23">
-        <v>0.3103380422110615</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1411906182163735</v>
+      </c>
+      <c r="H23">
+        <v>0.1307431524332557</v>
+      </c>
+      <c r="I23">
+        <v>0.01328354854525008</v>
+      </c>
+      <c r="J23">
+        <v>-0.08148581417360773</v>
+      </c>
+      <c r="K23">
+        <v>-0.03500113237672282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08620762624589871</v>
+        <v>-0.08564255023556828</v>
       </c>
       <c r="C24">
-        <v>-0.04520355809922309</v>
+        <v>-0.06024321814464977</v>
       </c>
       <c r="D24">
-        <v>-0.02527624501322196</v>
+        <v>0.0162524431436485</v>
       </c>
       <c r="E24">
-        <v>0.0348124877689294</v>
+        <v>0.02632937102195831</v>
       </c>
       <c r="F24">
-        <v>0.004356912901496252</v>
+        <v>0.005022762116260197</v>
       </c>
       <c r="G24">
-        <v>-0.1256470257343742</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.08911218840933276</v>
+      </c>
+      <c r="H24">
+        <v>-0.1089244142067006</v>
+      </c>
+      <c r="I24">
+        <v>0.006128816919008843</v>
+      </c>
+      <c r="J24">
+        <v>-0.1164285975031726</v>
+      </c>
+      <c r="K24">
+        <v>0.005794106042321776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.07613680467684791</v>
+        <v>-0.08706494944728507</v>
       </c>
       <c r="C25">
-        <v>-0.01765087726323412</v>
+        <v>-0.04669193982060041</v>
       </c>
       <c r="D25">
-        <v>-0.02696192753673505</v>
+        <v>0.02296285607689402</v>
       </c>
       <c r="E25">
-        <v>0.02554650863991187</v>
+        <v>0.05659557658473872</v>
       </c>
       <c r="F25">
-        <v>-0.001997235253297768</v>
+        <v>0.01524161632483889</v>
       </c>
       <c r="G25">
-        <v>-0.1181357900130885</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.09347887420096367</v>
+      </c>
+      <c r="H25">
+        <v>-0.1008491899348049</v>
+      </c>
+      <c r="I25">
+        <v>0.003514709146680106</v>
+      </c>
+      <c r="J25">
+        <v>-0.09569597933759381</v>
+      </c>
+      <c r="K25">
+        <v>0.005146788752142846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.05138638796289202</v>
+        <v>-0.04426625902937305</v>
       </c>
       <c r="C26">
-        <v>-0.02324299353057163</v>
+        <v>-0.005746909852667116</v>
       </c>
       <c r="D26">
-        <v>-0.03280016769214705</v>
+        <v>-0.01497010052762739</v>
       </c>
       <c r="E26">
-        <v>0.01308966419004158</v>
+        <v>-0.01428062643402972</v>
       </c>
       <c r="F26">
-        <v>0.03199158719357404</v>
+        <v>-0.003406174961652018</v>
       </c>
       <c r="G26">
-        <v>-0.05816713769329154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.0499579119888012</v>
+      </c>
+      <c r="H26">
+        <v>-0.04313940815644365</v>
+      </c>
+      <c r="I26">
+        <v>-0.01344441123669115</v>
+      </c>
+      <c r="J26">
+        <v>0.03497251469085338</v>
+      </c>
+      <c r="K26">
+        <v>0.007234165041421043</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.06060362073646053</v>
+        <v>-0.1076528447693115</v>
       </c>
       <c r="C28">
-        <v>0.2964438582689101</v>
+        <v>0.3156875811240655</v>
       </c>
       <c r="D28">
-        <v>-0.06402968717254442</v>
+        <v>0.02379707255295329</v>
       </c>
       <c r="E28">
-        <v>-0.03600698631716322</v>
+        <v>0.02331301315661644</v>
       </c>
       <c r="F28">
-        <v>-0.04557019857601097</v>
+        <v>-0.006055937093057074</v>
       </c>
       <c r="G28">
-        <v>0.02120970421076498</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01466041085782737</v>
+      </c>
+      <c r="H28">
+        <v>-0.007421699934253302</v>
+      </c>
+      <c r="I28">
+        <v>0.01544905638721454</v>
+      </c>
+      <c r="J28">
+        <v>-0.001350030206728782</v>
+      </c>
+      <c r="K28">
+        <v>0.01953608711920185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05771827414065574</v>
+        <v>-0.04108191610664739</v>
       </c>
       <c r="C29">
-        <v>-0.007213085781506928</v>
+        <v>-0.01695712492437143</v>
       </c>
       <c r="D29">
-        <v>-0.03051001533581495</v>
+        <v>0.004630056725710682</v>
       </c>
       <c r="E29">
-        <v>0.04470975279516527</v>
+        <v>0.03123293372869679</v>
       </c>
       <c r="F29">
-        <v>0.03749949310513858</v>
+        <v>-0.0145826138996466</v>
       </c>
       <c r="G29">
-        <v>-0.04413173142288595</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.09240538673055949</v>
+      </c>
+      <c r="H29">
+        <v>-0.05762509808660681</v>
+      </c>
+      <c r="I29">
+        <v>-0.00554849075491795</v>
+      </c>
+      <c r="J29">
+        <v>0.05758091848576741</v>
+      </c>
+      <c r="K29">
+        <v>0.03778611238690259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1140731757377867</v>
+        <v>-0.1090230356442213</v>
       </c>
       <c r="C30">
-        <v>0.02424252156817862</v>
+        <v>-0.04832341358558064</v>
       </c>
       <c r="D30">
-        <v>-0.07312976885580463</v>
+        <v>0.05786058912906136</v>
       </c>
       <c r="E30">
-        <v>0.2001455489638233</v>
+        <v>0.003842214146741963</v>
       </c>
       <c r="F30">
-        <v>-0.06947690251220011</v>
+        <v>0.0101478282410871</v>
       </c>
       <c r="G30">
-        <v>-0.1310709135678397</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.1582935316327653</v>
+      </c>
+      <c r="H30">
+        <v>-0.1174010255620752</v>
+      </c>
+      <c r="I30">
+        <v>0.1907371420061106</v>
+      </c>
+      <c r="J30">
+        <v>-0.1049554384667991</v>
+      </c>
+      <c r="K30">
+        <v>-0.03603219172734999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.05765036593981869</v>
+        <v>-0.03905110215429484</v>
       </c>
       <c r="C31">
-        <v>-0.01773601926885685</v>
+        <v>-0.03332877737355232</v>
       </c>
       <c r="D31">
-        <v>0.009961749404254596</v>
+        <v>0.0007125019589106881</v>
       </c>
       <c r="E31">
-        <v>0.007825942292389065</v>
+        <v>-0.002982569784996864</v>
       </c>
       <c r="F31">
-        <v>0.02586412535152801</v>
+        <v>-0.002620236719322328</v>
       </c>
       <c r="G31">
-        <v>-0.00837429339563363</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.0212281117359076</v>
+      </c>
+      <c r="H31">
+        <v>-0.02564122386422015</v>
+      </c>
+      <c r="I31">
+        <v>-0.03573916848673084</v>
+      </c>
+      <c r="J31">
+        <v>0.02421432149930312</v>
+      </c>
+      <c r="K31">
+        <v>-0.003244427282205333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.03921268150618088</v>
+        <v>-0.05326724669697429</v>
       </c>
       <c r="C32">
-        <v>0.0184560550404012</v>
+        <v>-0.001336458420530001</v>
       </c>
       <c r="D32">
-        <v>-0.005577583542553595</v>
+        <v>-0.01111397452419787</v>
       </c>
       <c r="E32">
-        <v>0.08284376205747793</v>
+        <v>-0.0001560192221962399</v>
       </c>
       <c r="F32">
-        <v>0.08304316768644388</v>
+        <v>0.0589278042964228</v>
       </c>
       <c r="G32">
-        <v>-0.05262255934570791</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02100442829940478</v>
+      </c>
+      <c r="H32">
+        <v>-0.04513617240349802</v>
+      </c>
+      <c r="I32">
+        <v>-0.006477587580547658</v>
+      </c>
+      <c r="J32">
+        <v>0.01151156867964804</v>
+      </c>
+      <c r="K32">
+        <v>-0.003909292022764089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1118882072880724</v>
+        <v>-0.09988076151774584</v>
       </c>
       <c r="C33">
-        <v>-0.01574929064044703</v>
+        <v>-0.0581712595484453</v>
       </c>
       <c r="D33">
-        <v>0.006610379660489013</v>
+        <v>0.06350532119397566</v>
       </c>
       <c r="E33">
-        <v>0.008136334204016424</v>
+        <v>0.03187033547209765</v>
       </c>
       <c r="F33">
-        <v>0.05391067304482365</v>
+        <v>0.006884951334072036</v>
       </c>
       <c r="G33">
-        <v>-0.05407931453064718</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03335950014392419</v>
+      </c>
+      <c r="H33">
+        <v>-0.05732404604348551</v>
+      </c>
+      <c r="I33">
+        <v>-0.01199283656188779</v>
+      </c>
+      <c r="J33">
+        <v>-0.02243192804844285</v>
+      </c>
+      <c r="K33">
+        <v>-0.02230439751183194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06649297933955309</v>
+        <v>-0.07040245050390184</v>
       </c>
       <c r="C34">
-        <v>-0.04938300006830743</v>
+        <v>-0.05305186090886298</v>
       </c>
       <c r="D34">
-        <v>-0.01106019498579594</v>
+        <v>0.02338144475388582</v>
       </c>
       <c r="E34">
-        <v>0.01027748488940663</v>
+        <v>0.03222956082383187</v>
       </c>
       <c r="F34">
-        <v>0.01733257566489059</v>
+        <v>0.005365858441206519</v>
       </c>
       <c r="G34">
-        <v>-0.104044077222239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.08465832250187613</v>
+      </c>
+      <c r="H34">
+        <v>-0.09967512174608718</v>
+      </c>
+      <c r="I34">
+        <v>0.004304145473888566</v>
+      </c>
+      <c r="J34">
+        <v>-0.08245068561715634</v>
+      </c>
+      <c r="K34">
+        <v>0.04127351537030034</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04489260925288822</v>
+        <v>-0.02067425667717728</v>
       </c>
       <c r="C35">
-        <v>-0.006649538915056887</v>
+        <v>-0.01403964178818119</v>
       </c>
       <c r="D35">
-        <v>0.01673953106152727</v>
+        <v>0.008583791670950962</v>
       </c>
       <c r="E35">
-        <v>0.001894039216886174</v>
+        <v>0.006448890212795437</v>
       </c>
       <c r="F35">
-        <v>-0.03573898230885467</v>
+        <v>-0.001330757242981102</v>
       </c>
       <c r="G35">
-        <v>-0.04800081860848448</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.05189115750031564</v>
+      </c>
+      <c r="H35">
+        <v>-0.03097046390426352</v>
+      </c>
+      <c r="I35">
+        <v>0.009997997516698075</v>
+      </c>
+      <c r="J35">
+        <v>0.01393439697098875</v>
+      </c>
+      <c r="K35">
+        <v>0.06913943336284016</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03636155212368544</v>
+        <v>-0.03026728317017074</v>
       </c>
       <c r="C36">
-        <v>-0.003622898012410186</v>
+        <v>-0.0132066192694064</v>
       </c>
       <c r="D36">
-        <v>-0.02347810762032365</v>
+        <v>0.005102201635621174</v>
       </c>
       <c r="E36">
-        <v>0.03468135829972165</v>
+        <v>-0.004168784154975177</v>
       </c>
       <c r="F36">
-        <v>0.006905585927176531</v>
+        <v>-0.00790642098977941</v>
       </c>
       <c r="G36">
-        <v>-0.06026129636235528</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.04603264345166969</v>
+      </c>
+      <c r="H36">
+        <v>-0.06305918040793772</v>
+      </c>
+      <c r="I36">
+        <v>0.003647403520960222</v>
+      </c>
+      <c r="J36">
+        <v>0.02577071997392924</v>
+      </c>
+      <c r="K36">
+        <v>-0.01341255384497229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.05495488110701516</v>
+        <v>-0.02217668649092248</v>
       </c>
       <c r="C38">
-        <v>-0.01473156765407867</v>
+        <v>-0.02238369760021814</v>
       </c>
       <c r="D38">
-        <v>-0.00453665043499981</v>
+        <v>0.008014381520178925</v>
       </c>
       <c r="E38">
-        <v>0.007355596346768645</v>
+        <v>-0.002995887250292908</v>
       </c>
       <c r="F38">
-        <v>0.0001990624667321951</v>
+        <v>-0.02207360641593813</v>
       </c>
       <c r="G38">
-        <v>-0.04944831974682898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.006856532272599348</v>
+      </c>
+      <c r="H38">
+        <v>0.04917128535274641</v>
+      </c>
+      <c r="I38">
+        <v>0.01006226515511468</v>
+      </c>
+      <c r="J38">
+        <v>0.01768694376120647</v>
+      </c>
+      <c r="K38">
+        <v>-0.006986432371291372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.1090262466857369</v>
+        <v>-0.1185430250379729</v>
       </c>
       <c r="C39">
-        <v>-0.04028574607522638</v>
+        <v>-0.08435648579486091</v>
       </c>
       <c r="D39">
-        <v>-0.005219017887708138</v>
+        <v>0.05409634203008739</v>
       </c>
       <c r="E39">
-        <v>0.06875037584229694</v>
+        <v>0.09179317182004681</v>
       </c>
       <c r="F39">
-        <v>0.01169589121888375</v>
+        <v>0.05374540164241018</v>
       </c>
       <c r="G39">
-        <v>-0.1561733108940005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.1322890755189954</v>
+      </c>
+      <c r="H39">
+        <v>-0.0915892350820473</v>
+      </c>
+      <c r="I39">
+        <v>0.02569242173857769</v>
+      </c>
+      <c r="J39">
+        <v>-0.1740911212013583</v>
+      </c>
+      <c r="K39">
+        <v>0.03234579296355965</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.05380253669830858</v>
+        <v>-0.02014605696873232</v>
       </c>
       <c r="C40">
-        <v>-0.02620392659146585</v>
+        <v>-0.03780590515307971</v>
       </c>
       <c r="D40">
-        <v>0.01993245095015521</v>
+        <v>-0.007695779367956723</v>
       </c>
       <c r="E40">
-        <v>0.1010094357108456</v>
+        <v>-0.04636250512976181</v>
       </c>
       <c r="F40">
-        <v>-0.02485435116722448</v>
+        <v>-0.05112181471897703</v>
       </c>
       <c r="G40">
-        <v>-0.2441781812586205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.06446340887410909</v>
+      </c>
+      <c r="H40">
+        <v>-0.1128026577745085</v>
+      </c>
+      <c r="I40">
+        <v>0.08234872763214794</v>
+      </c>
+      <c r="J40">
+        <v>0.03957850657047692</v>
+      </c>
+      <c r="K40">
+        <v>0.04334211294608025</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.04838927549887517</v>
+        <v>-0.03270495401460803</v>
       </c>
       <c r="C41">
-        <v>-0.02855031329871473</v>
+        <v>-0.01705351865844543</v>
       </c>
       <c r="D41">
-        <v>-7.118892823023056e-05</v>
+        <v>-0.009243228304687681</v>
       </c>
       <c r="E41">
-        <v>-0.01264303074608011</v>
+        <v>0.01119465733101185</v>
       </c>
       <c r="F41">
-        <v>0.02149613574324638</v>
+        <v>0.002245570549075033</v>
       </c>
       <c r="G41">
-        <v>-0.06943461411982284</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.0211802113250381</v>
+      </c>
+      <c r="H41">
+        <v>-0.02133031063981199</v>
+      </c>
+      <c r="I41">
+        <v>-0.01527884463856401</v>
+      </c>
+      <c r="J41">
+        <v>0.02124970482829129</v>
+      </c>
+      <c r="K41">
+        <v>0.02704294142535302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.07309941363900467</v>
+        <v>-0.04792279758029317</v>
       </c>
       <c r="C43">
-        <v>-0.02674323192804177</v>
+        <v>-0.01914870112744002</v>
       </c>
       <c r="D43">
-        <v>-0.0195863296380465</v>
+        <v>0.0160816747979721</v>
       </c>
       <c r="E43">
-        <v>0.02265338700192394</v>
+        <v>0.005005279702264271</v>
       </c>
       <c r="F43">
-        <v>0.0199929432665352</v>
+        <v>-0.01465167607442629</v>
       </c>
       <c r="G43">
-        <v>-0.01155848880960268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.0347225094336505</v>
+      </c>
+      <c r="H43">
+        <v>-0.003860792709616595</v>
+      </c>
+      <c r="I43">
+        <v>-0.009350837040980466</v>
+      </c>
+      <c r="J43">
+        <v>0.0150256304304358</v>
+      </c>
+      <c r="K43">
+        <v>0.005906200427901162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.07273786856041767</v>
+        <v>-0.1073000313723956</v>
       </c>
       <c r="C44">
-        <v>-0.01847352833816931</v>
+        <v>-0.08145291718231978</v>
       </c>
       <c r="D44">
-        <v>-0.09667950602349555</v>
+        <v>0.05588901475888503</v>
       </c>
       <c r="E44">
-        <v>0.06143107074101585</v>
+        <v>0.006504185177270408</v>
       </c>
       <c r="F44">
-        <v>0.03583005217857711</v>
+        <v>-0.1294104243930743</v>
       </c>
       <c r="G44">
-        <v>-0.1115626823662588</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.1938344749586491</v>
+      </c>
+      <c r="H44">
+        <v>-0.1459684346026056</v>
+      </c>
+      <c r="I44">
+        <v>0.0742822710207318</v>
+      </c>
+      <c r="J44">
+        <v>0.08280217401335968</v>
+      </c>
+      <c r="K44">
+        <v>0.07095821171102569</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.04764290706855542</v>
+        <v>-0.02696694789717408</v>
       </c>
       <c r="C46">
-        <v>-0.03885018138851062</v>
+        <v>-0.008860818495197608</v>
       </c>
       <c r="D46">
-        <v>-0.03136963512130499</v>
+        <v>0.007662945755516152</v>
       </c>
       <c r="E46">
-        <v>0.05213923212770102</v>
+        <v>-0.005607345271719684</v>
       </c>
       <c r="F46">
-        <v>0.02068991371768192</v>
+        <v>-0.04590217425453802</v>
       </c>
       <c r="G46">
-        <v>-0.03654803556420919</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05511431559211061</v>
+      </c>
+      <c r="H46">
+        <v>-0.03386774757425927</v>
+      </c>
+      <c r="I46">
+        <v>0.005524476292180059</v>
+      </c>
+      <c r="J46">
+        <v>0.05410022364887006</v>
+      </c>
+      <c r="K46">
+        <v>0.0770494075943489</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.04799913707306266</v>
+        <v>-0.04066350143201634</v>
       </c>
       <c r="C47">
-        <v>-0.0005766327015312822</v>
+        <v>-0.01220829412914548</v>
       </c>
       <c r="D47">
-        <v>-0.009372788965716994</v>
+        <v>0.005727128968047371</v>
       </c>
       <c r="E47">
-        <v>0.0610642637727602</v>
+        <v>-0.007245989931327066</v>
       </c>
       <c r="F47">
-        <v>-0.006794163275525926</v>
+        <v>-0.008961989357248295</v>
       </c>
       <c r="G47">
-        <v>0.003588634666757162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.0351543406374954</v>
+      </c>
+      <c r="H47">
+        <v>-0.0280499102393978</v>
+      </c>
+      <c r="I47">
+        <v>0.001766971807920277</v>
+      </c>
+      <c r="J47">
+        <v>0.05469289707504854</v>
+      </c>
+      <c r="K47">
+        <v>0.02150933947527235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.04403740739001503</v>
+        <v>-0.04385772122976396</v>
       </c>
       <c r="C48">
-        <v>-0.0003242893286892024</v>
+        <v>-0.01282382897986589</v>
       </c>
       <c r="D48">
-        <v>0.002217917138840097</v>
+        <v>0.005364427124026163</v>
       </c>
       <c r="E48">
-        <v>0.03626921410998932</v>
+        <v>0.006479491217890649</v>
       </c>
       <c r="F48">
-        <v>0.009860998800133809</v>
+        <v>-0.00750003735537434</v>
       </c>
       <c r="G48">
-        <v>-0.04729296621712444</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.05000115268718034</v>
+      </c>
+      <c r="H48">
+        <v>-0.05351354365425279</v>
+      </c>
+      <c r="I48">
+        <v>0.01856200454561457</v>
+      </c>
+      <c r="J48">
+        <v>0.001522609697971982</v>
+      </c>
+      <c r="K48">
+        <v>0.02669549555399438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.2369278078755338</v>
+        <v>-0.2297901236315657</v>
       </c>
       <c r="C49">
-        <v>-0.0907388372295211</v>
+        <v>-0.04723342762087408</v>
       </c>
       <c r="D49">
-        <v>-0.02149375921226328</v>
+        <v>-0.07570771395477842</v>
       </c>
       <c r="E49">
-        <v>-0.08667621344553493</v>
+        <v>0.05012557838853454</v>
       </c>
       <c r="F49">
-        <v>-0.1690557507355629</v>
+        <v>0.00231758364035639</v>
       </c>
       <c r="G49">
-        <v>0.09019377500341036</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.1632766445945093</v>
+      </c>
+      <c r="H49">
+        <v>0.1913172752247828</v>
+      </c>
+      <c r="I49">
+        <v>0.183461966192012</v>
+      </c>
+      <c r="J49">
+        <v>-0.2484668455491048</v>
+      </c>
+      <c r="K49">
+        <v>-0.1037373002143596</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.05559363049441938</v>
+        <v>-0.04372211529073823</v>
       </c>
       <c r="C50">
-        <v>-0.0135088984687635</v>
+        <v>-0.02366343789190424</v>
       </c>
       <c r="D50">
-        <v>0.005407206541047197</v>
+        <v>-0.005949059216301343</v>
       </c>
       <c r="E50">
-        <v>0.02681802308336513</v>
+        <v>-0.0048166772607421</v>
       </c>
       <c r="F50">
-        <v>0.05180145309616283</v>
+        <v>0.0008493876077978388</v>
       </c>
       <c r="G50">
-        <v>0.001120535214081336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.04336968706850556</v>
+      </c>
+      <c r="H50">
+        <v>-0.03713032284733032</v>
+      </c>
+      <c r="I50">
+        <v>-0.01985697369170727</v>
+      </c>
+      <c r="J50">
+        <v>0.01977830370947588</v>
+      </c>
+      <c r="K50">
+        <v>-0.02640335934553764</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03591753727483407</v>
+        <v>-0.02026716538242655</v>
       </c>
       <c r="C51">
-        <v>-0.0145162206061711</v>
+        <v>0.002351776090875173</v>
       </c>
       <c r="D51">
-        <v>-0.01416372572106677</v>
+        <v>0.01215725630884042</v>
       </c>
       <c r="E51">
-        <v>-0.004834862103424947</v>
+        <v>0.01230578156329605</v>
       </c>
       <c r="F51">
-        <v>0.002828288744307486</v>
+        <v>-0.01968473158816041</v>
       </c>
       <c r="G51">
-        <v>-0.001079451058996218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02809884773430523</v>
+      </c>
+      <c r="H51">
+        <v>0.01230311333316467</v>
+      </c>
+      <c r="I51">
+        <v>0.01569890868320954</v>
+      </c>
+      <c r="J51">
+        <v>-0.02649124154893353</v>
+      </c>
+      <c r="K51">
+        <v>-0.007094285221748052</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.07231343849250726</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.03775068154765915</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01371725089618289</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.0148208589121638</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01669725035132958</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.05938016519803123</v>
+      </c>
+      <c r="H52">
+        <v>0.02616899475258515</v>
+      </c>
+      <c r="I52">
+        <v>-0.1272811026688379</v>
+      </c>
+      <c r="J52">
+        <v>0.004052558216674431</v>
+      </c>
+      <c r="K52">
+        <v>-0.009862222390152386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1589707294950449</v>
+        <v>-0.1625351326710762</v>
       </c>
       <c r="C53">
-        <v>0.002263810152963103</v>
+        <v>-0.03147703913820805</v>
       </c>
       <c r="D53">
-        <v>-0.0146412797463915</v>
+        <v>-0.006924190956532668</v>
       </c>
       <c r="E53">
-        <v>-0.05404401369715418</v>
+        <v>0.01687349953569535</v>
       </c>
       <c r="F53">
-        <v>0.227021919660312</v>
+        <v>-0.01195437968124581</v>
       </c>
       <c r="G53">
-        <v>0.05181194485603641</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02615490141285104</v>
+      </c>
+      <c r="H53">
+        <v>0.1063033121849254</v>
+      </c>
+      <c r="I53">
+        <v>-0.2687278108642945</v>
+      </c>
+      <c r="J53">
+        <v>0.06980458425799003</v>
+      </c>
+      <c r="K53">
+        <v>-0.09049883470450425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.05305834612547009</v>
+        <v>-0.05280948539348171</v>
       </c>
       <c r="C54">
-        <v>-0.006800765888383523</v>
+        <v>-0.03394933360994163</v>
       </c>
       <c r="D54">
-        <v>-0.02679768183085456</v>
+        <v>-0.007634662136354057</v>
       </c>
       <c r="E54">
-        <v>0.04006768972919615</v>
+        <v>-0.0104767404770709</v>
       </c>
       <c r="F54">
-        <v>0.01616433792024943</v>
+        <v>-0.02209430575383517</v>
       </c>
       <c r="G54">
-        <v>-0.07654646407958406</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05458948060192745</v>
+      </c>
+      <c r="H54">
+        <v>-0.1458757831010728</v>
+      </c>
+      <c r="I54">
+        <v>-0.004261066750847303</v>
+      </c>
+      <c r="J54">
+        <v>0.1153846630663824</v>
+      </c>
+      <c r="K54">
+        <v>0.05974482404800754</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09328230683300133</v>
+        <v>-0.08928849298983807</v>
       </c>
       <c r="C55">
-        <v>-0.01744375374418865</v>
+        <v>-0.03577807885423425</v>
       </c>
       <c r="D55">
-        <v>-0.01821172392289776</v>
+        <v>0.04617946316766736</v>
       </c>
       <c r="E55">
-        <v>0.0006608954458472168</v>
+        <v>0.04173884369784517</v>
       </c>
       <c r="F55">
-        <v>0.1751459050223578</v>
+        <v>-0.007300839806250512</v>
       </c>
       <c r="G55">
-        <v>0.002482918288686973</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01801852325814397</v>
+      </c>
+      <c r="H55">
+        <v>0.01965914676162162</v>
+      </c>
+      <c r="I55">
+        <v>-0.1633838960623594</v>
+      </c>
+      <c r="J55">
+        <v>0.03379214678806788</v>
+      </c>
+      <c r="K55">
+        <v>-0.02918532257246717</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1600262668765348</v>
+        <v>-0.1593243815955692</v>
       </c>
       <c r="C56">
-        <v>0.002056587870348593</v>
+        <v>-0.04244575052669236</v>
       </c>
       <c r="D56">
-        <v>-0.008817197940064228</v>
+        <v>0.01181928429404596</v>
       </c>
       <c r="E56">
-        <v>-0.05313147699923194</v>
+        <v>0.0457462697484921</v>
       </c>
       <c r="F56">
-        <v>0.230984178891894</v>
+        <v>-0.01552534379962501</v>
       </c>
       <c r="G56">
-        <v>0.05359047012922719</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.05575218117191968</v>
+      </c>
+      <c r="H56">
+        <v>0.06941352518813539</v>
+      </c>
+      <c r="I56">
+        <v>-0.2265189680914537</v>
+      </c>
+      <c r="J56">
+        <v>0.04620681008197536</v>
+      </c>
+      <c r="K56">
+        <v>-0.07809140220202553</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.030946851812427</v>
+        <v>-0.04249138299856187</v>
       </c>
       <c r="C58">
-        <v>-0.06142071769476207</v>
+        <v>-0.03156535302185464</v>
       </c>
       <c r="D58">
-        <v>0.03420631725062061</v>
+        <v>0.003636345723745314</v>
       </c>
       <c r="E58">
-        <v>0.2743705201727978</v>
+        <v>-0.06571588955193344</v>
       </c>
       <c r="F58">
-        <v>-0.4979951767855263</v>
+        <v>-0.04948571548260892</v>
       </c>
       <c r="G58">
-        <v>-0.1626646057555921</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1127936929194634</v>
+      </c>
+      <c r="H58">
+        <v>-0.003995987147272313</v>
+      </c>
+      <c r="I58">
+        <v>0.1912650689162811</v>
+      </c>
+      <c r="J58">
+        <v>0.03462445628728533</v>
+      </c>
+      <c r="K58">
+        <v>0.2676607013933183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1541698491924522</v>
+        <v>-0.1813607934807924</v>
       </c>
       <c r="C59">
-        <v>0.3911303222109723</v>
+        <v>0.2967193628540481</v>
       </c>
       <c r="D59">
-        <v>-0.08890529037843493</v>
+        <v>0.04270754832698744</v>
       </c>
       <c r="E59">
-        <v>-0.07302186770781452</v>
+        <v>0.06302588081645791</v>
       </c>
       <c r="F59">
-        <v>0.03306635702877425</v>
+        <v>-0.002138356069467497</v>
       </c>
       <c r="G59">
-        <v>-0.03308359466231468</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.03826334093952143</v>
+      </c>
+      <c r="H59">
+        <v>-0.04316603878485196</v>
+      </c>
+      <c r="I59">
+        <v>-0.06478371026470831</v>
+      </c>
+      <c r="J59">
+        <v>-0.03457404969373284</v>
+      </c>
+      <c r="K59">
+        <v>-0.02245301043474901</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2664389257927747</v>
+        <v>-0.2675073889665914</v>
       </c>
       <c r="C60">
-        <v>-0.06903729885562644</v>
+        <v>-0.1538626767268197</v>
       </c>
       <c r="D60">
-        <v>-0.07199087954676955</v>
+        <v>-0.0920903649914644</v>
       </c>
       <c r="E60">
-        <v>-0.07951501201081008</v>
+        <v>0.1124476949738328</v>
       </c>
       <c r="F60">
-        <v>-0.06973651285356898</v>
+        <v>-0.02823277056380678</v>
       </c>
       <c r="G60">
-        <v>0.1956440133875096</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.01038185280556617</v>
+      </c>
+      <c r="H60">
+        <v>0.19801126740582</v>
+      </c>
+      <c r="I60">
+        <v>0.2020197443830534</v>
+      </c>
+      <c r="J60">
+        <v>-0.136933329646052</v>
+      </c>
+      <c r="K60">
+        <v>-0.3405144807084459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.09427800368089985</v>
+        <v>-0.1062219610712173</v>
       </c>
       <c r="C61">
-        <v>-0.01756811198439665</v>
+        <v>-0.04488951447604302</v>
       </c>
       <c r="D61">
-        <v>-0.006331207814551648</v>
+        <v>0.03866283105413473</v>
       </c>
       <c r="E61">
-        <v>0.02184784441342292</v>
+        <v>0.0709227938613556</v>
       </c>
       <c r="F61">
-        <v>0.0230553058677605</v>
+        <v>0.01504815139289344</v>
       </c>
       <c r="G61">
-        <v>-0.06708328113726589</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.1051508225539606</v>
+      </c>
+      <c r="H61">
+        <v>-0.1069829792196475</v>
+      </c>
+      <c r="I61">
+        <v>-0.04558611826251546</v>
+      </c>
+      <c r="J61">
+        <v>-0.08948368381563968</v>
+      </c>
+      <c r="K61">
+        <v>0.04323323579610872</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1454301139833097</v>
+        <v>-0.1543125724740381</v>
       </c>
       <c r="C62">
-        <v>-0.0228843403845755</v>
+        <v>-0.04622126517841479</v>
       </c>
       <c r="D62">
-        <v>0.03047762045354878</v>
+        <v>0.01457187586971495</v>
       </c>
       <c r="E62">
-        <v>-0.1232721635771325</v>
+        <v>0.03842225478675512</v>
       </c>
       <c r="F62">
-        <v>0.2366215516824904</v>
+        <v>0.008886424339106077</v>
       </c>
       <c r="G62">
-        <v>0.02029282904846344</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.02986186782901306</v>
+      </c>
+      <c r="H62">
+        <v>0.08912201726863797</v>
+      </c>
+      <c r="I62">
+        <v>-0.2242164286857432</v>
+      </c>
+      <c r="J62">
+        <v>0.07016110817830387</v>
+      </c>
+      <c r="K62">
+        <v>-0.0693679615465775</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.04328023173288849</v>
+        <v>-0.04025349370198595</v>
       </c>
       <c r="C63">
-        <v>-0.01379249160438523</v>
+        <v>-0.005703554954165105</v>
       </c>
       <c r="D63">
-        <v>0.007219734419571587</v>
+        <v>0.01202611347788796</v>
       </c>
       <c r="E63">
-        <v>0.01402658021471555</v>
+        <v>-0.01682432545593394</v>
       </c>
       <c r="F63">
-        <v>0.02241466453186176</v>
+        <v>0.02013717267829484</v>
       </c>
       <c r="G63">
-        <v>-0.04256392731910865</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.03772783780242173</v>
+      </c>
+      <c r="H63">
+        <v>-0.0663928290528462</v>
+      </c>
+      <c r="I63">
+        <v>0.01273032553900821</v>
+      </c>
+      <c r="J63">
+        <v>0.01019872247996848</v>
+      </c>
+      <c r="K63">
+        <v>0.009393413305310168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.1069296540668917</v>
+        <v>-0.09966198740494001</v>
       </c>
       <c r="C64">
-        <v>-0.009929130960538159</v>
+        <v>-0.02782328622626191</v>
       </c>
       <c r="D64">
-        <v>-0.03964492145708376</v>
+        <v>-0.01514335064509548</v>
       </c>
       <c r="E64">
-        <v>0.03486120592876051</v>
+        <v>0.02887932522978261</v>
       </c>
       <c r="F64">
-        <v>-0.02101993179398852</v>
+        <v>-0.03964852571907283</v>
       </c>
       <c r="G64">
-        <v>-0.0458851296106586</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06456607752397134</v>
+      </c>
+      <c r="H64">
+        <v>-0.06009384966576449</v>
+      </c>
+      <c r="I64">
+        <v>0.07875273824213114</v>
+      </c>
+      <c r="J64">
+        <v>-0.02769757143042977</v>
+      </c>
+      <c r="K64">
+        <v>-0.03703908892927076</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1204754647904184</v>
+        <v>-0.1157640962612761</v>
       </c>
       <c r="C65">
-        <v>-0.02653240210828497</v>
+        <v>-0.01168707353684723</v>
       </c>
       <c r="D65">
-        <v>-0.01767281576524165</v>
+        <v>-0.008930293277773907</v>
       </c>
       <c r="E65">
-        <v>0.05943131710911072</v>
+        <v>-0.02818951206107374</v>
       </c>
       <c r="F65">
-        <v>-0.1863466031258539</v>
+        <v>0.02737596385819372</v>
       </c>
       <c r="G65">
-        <v>0.2204268334498284</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.04728094098272743</v>
+      </c>
+      <c r="H65">
+        <v>-0.00644674665517268</v>
+      </c>
+      <c r="I65">
+        <v>0.2812921087341689</v>
+      </c>
+      <c r="J65">
+        <v>0.4436869960961961</v>
+      </c>
+      <c r="K65">
+        <v>-0.3338846093225181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.160744982269128</v>
+        <v>-0.1451205990058009</v>
       </c>
       <c r="C66">
-        <v>-0.04829292034789271</v>
+        <v>-0.09862984670134051</v>
       </c>
       <c r="D66">
-        <v>0.01713314857079797</v>
+        <v>0.05591069260184013</v>
       </c>
       <c r="E66">
-        <v>0.01832759639292261</v>
+        <v>0.0893317631886187</v>
       </c>
       <c r="F66">
-        <v>0.03349837173538605</v>
+        <v>0.06210550719788046</v>
       </c>
       <c r="G66">
-        <v>-0.2974393791721776</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.116964166247669</v>
+      </c>
+      <c r="H66">
+        <v>-0.07700857540273671</v>
+      </c>
+      <c r="I66">
+        <v>-0.002345376051173127</v>
+      </c>
+      <c r="J66">
+        <v>-0.2213744077848195</v>
+      </c>
+      <c r="K66">
+        <v>-0.01197694348750334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.1065957723611334</v>
+        <v>-0.07853791909065193</v>
       </c>
       <c r="C67">
-        <v>-0.03841577069342519</v>
+        <v>-0.05432804591629745</v>
       </c>
       <c r="D67">
-        <v>-0.02204817030935695</v>
+        <v>0.0672117896440242</v>
       </c>
       <c r="E67">
-        <v>-0.01624872157079173</v>
+        <v>0.02636612084484107</v>
       </c>
       <c r="F67">
-        <v>0.01154600296573272</v>
+        <v>-0.02845017361213748</v>
       </c>
       <c r="G67">
-        <v>-0.04642980162769159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.06609739798793894</v>
+      </c>
+      <c r="H67">
+        <v>0.03728425915594188</v>
+      </c>
+      <c r="I67">
+        <v>-0.007964104605787888</v>
+      </c>
+      <c r="J67">
+        <v>-0.06050379682063089</v>
+      </c>
+      <c r="K67">
+        <v>-0.06639641665087122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.0404765428310872</v>
+        <v>-0.09038693593829479</v>
       </c>
       <c r="C68">
-        <v>0.2922410406570571</v>
+        <v>0.2843899719549429</v>
       </c>
       <c r="D68">
-        <v>-0.03901982478530852</v>
+        <v>0.02399139534977809</v>
       </c>
       <c r="E68">
-        <v>-0.01103716852204148</v>
+        <v>0.01487699835882811</v>
       </c>
       <c r="F68">
-        <v>-0.01175359227060685</v>
+        <v>0.01404696140331437</v>
       </c>
       <c r="G68">
-        <v>0.02351334341434285</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02334723065340547</v>
+      </c>
+      <c r="H68">
+        <v>-0.02616995778375561</v>
+      </c>
+      <c r="I68">
+        <v>0.007201627077462288</v>
+      </c>
+      <c r="J68">
+        <v>0.005159172155707677</v>
+      </c>
+      <c r="K68">
+        <v>-0.02092240633928526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.04566228670833922</v>
+        <v>-0.03683693192063884</v>
       </c>
       <c r="C69">
-        <v>-0.01213632340138087</v>
+        <v>-0.001803664614366975</v>
       </c>
       <c r="D69">
-        <v>-0.009470901258660763</v>
+        <v>0.02771120134624997</v>
       </c>
       <c r="E69">
-        <v>-0.0002757348127064926</v>
+        <v>0.01424231639521032</v>
       </c>
       <c r="F69">
-        <v>0.008942276753481688</v>
+        <v>-0.01707841811771615</v>
       </c>
       <c r="G69">
-        <v>-0.02237229993672207</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01086037487280428</v>
+      </c>
+      <c r="H69">
+        <v>-0.004679711129860285</v>
+      </c>
+      <c r="I69">
+        <v>-0.009396637762726269</v>
+      </c>
+      <c r="J69">
+        <v>0.03122605180563617</v>
+      </c>
+      <c r="K69">
+        <v>-0.01103898250334873</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.07557449656784396</v>
+        <v>-0.04703305228005703</v>
       </c>
       <c r="C70">
-        <v>-0.006454530654970358</v>
+        <v>-0.01027338368457677</v>
       </c>
       <c r="D70">
-        <v>-0.03620532693846145</v>
+        <v>0.01950985580267473</v>
       </c>
       <c r="E70">
-        <v>-0.03275199563271966</v>
+        <v>0.04975704319064598</v>
       </c>
       <c r="F70">
-        <v>-0.08036202274973105</v>
+        <v>-0.009823786757410033</v>
       </c>
       <c r="G70">
-        <v>0.01256699584456974</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.02235041706175546</v>
+      </c>
+      <c r="H70">
+        <v>-0.02673789357999591</v>
+      </c>
+      <c r="I70">
+        <v>0.06328691463793054</v>
+      </c>
+      <c r="J70">
+        <v>0.157179984282912</v>
+      </c>
+      <c r="K70">
+        <v>0.1225511897048305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.05080893753904468</v>
+        <v>-0.1060750328867296</v>
       </c>
       <c r="C71">
-        <v>0.2938795564951988</v>
+        <v>0.293764837683619</v>
       </c>
       <c r="D71">
-        <v>-0.05727331827109276</v>
+        <v>0.01838939475523776</v>
       </c>
       <c r="E71">
-        <v>-0.008141176503127543</v>
+        <v>0.02818465128086257</v>
       </c>
       <c r="F71">
-        <v>-0.01233359813825801</v>
+        <v>-0.01213632007372294</v>
       </c>
       <c r="G71">
-        <v>-0.01143088979550525</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03924882723559931</v>
+      </c>
+      <c r="H71">
+        <v>-0.02370330791473613</v>
+      </c>
+      <c r="I71">
+        <v>0.003327718180019194</v>
+      </c>
+      <c r="J71">
+        <v>-0.0252649147849374</v>
+      </c>
+      <c r="K71">
+        <v>-0.03414202408988826</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1465155913625663</v>
+        <v>-0.1475625925929897</v>
       </c>
       <c r="C72">
-        <v>0.05004004446127599</v>
+        <v>-0.002755172418303062</v>
       </c>
       <c r="D72">
-        <v>0.2363197232198439</v>
+        <v>0.02192307472480162</v>
       </c>
       <c r="E72">
-        <v>-0.03498595016888742</v>
+        <v>-0.0640768046289991</v>
       </c>
       <c r="F72">
-        <v>0.03330616454237537</v>
+        <v>0.08206838443403461</v>
       </c>
       <c r="G72">
-        <v>-0.04912193211750637</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.00159662691423628</v>
+      </c>
+      <c r="H72">
+        <v>0.01389826863798344</v>
+      </c>
+      <c r="I72">
+        <v>-0.03246436119251094</v>
+      </c>
+      <c r="J72">
+        <v>0.06295030670653426</v>
+      </c>
+      <c r="K72">
+        <v>-0.1580522995132087</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2849554713257252</v>
+        <v>-0.2426157652788332</v>
       </c>
       <c r="C73">
-        <v>-0.1659751790285267</v>
+        <v>-0.1114047991482574</v>
       </c>
       <c r="D73">
-        <v>-0.03973556885246041</v>
+        <v>-0.003416371983820195</v>
       </c>
       <c r="E73">
-        <v>-0.1546963903298939</v>
+        <v>0.1545610302756951</v>
       </c>
       <c r="F73">
-        <v>-0.2918315736982698</v>
+        <v>-0.0391644119148505</v>
       </c>
       <c r="G73">
-        <v>0.2509075806819336</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2757572205096169</v>
+      </c>
+      <c r="H73">
+        <v>0.3348957222329192</v>
+      </c>
+      <c r="I73">
+        <v>0.2736052960813625</v>
+      </c>
+      <c r="J73">
+        <v>-0.1902385630977179</v>
+      </c>
+      <c r="K73">
+        <v>0.07383613649842702</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.09855860149065541</v>
+        <v>-0.1137277482802691</v>
       </c>
       <c r="C74">
-        <v>-0.03716655474340084</v>
+        <v>-0.05451769597674205</v>
       </c>
       <c r="D74">
-        <v>-0.00143570778487672</v>
+        <v>0.02674682800487093</v>
       </c>
       <c r="E74">
-        <v>-0.01581883259571182</v>
+        <v>0.01314296682160892</v>
       </c>
       <c r="F74">
-        <v>0.09884484894289552</v>
+        <v>-0.007399225068818825</v>
       </c>
       <c r="G74">
-        <v>0.02946352218012262</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.06602731497228792</v>
+      </c>
+      <c r="H74">
+        <v>0.07916394114179549</v>
+      </c>
+      <c r="I74">
+        <v>-0.132109575261199</v>
+      </c>
+      <c r="J74">
+        <v>0.04800097080421178</v>
+      </c>
+      <c r="K74">
+        <v>-0.01921239631169358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.09282302722941503</v>
+        <v>-0.1106354581962494</v>
       </c>
       <c r="C75">
-        <v>-0.01659087262725041</v>
+        <v>-0.04424973047523442</v>
       </c>
       <c r="D75">
-        <v>0.01997924578309928</v>
+        <v>0.007469311947566234</v>
       </c>
       <c r="E75">
-        <v>-0.03400649813214991</v>
+        <v>0.000950268984909927</v>
       </c>
       <c r="F75">
-        <v>0.1142731796278363</v>
+        <v>0.006650541505509833</v>
       </c>
       <c r="G75">
-        <v>0.05636182305456484</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.00092419981414804</v>
+      </c>
+      <c r="H75">
+        <v>0.04472861559492339</v>
+      </c>
+      <c r="I75">
+        <v>-0.15377929217794</v>
+      </c>
+      <c r="J75">
+        <v>0.04399254443207939</v>
+      </c>
+      <c r="K75">
+        <v>-0.006598561831143811</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1370040773404642</v>
+        <v>-0.05649502669752206</v>
       </c>
       <c r="C76">
-        <v>-0.02940652532047753</v>
+        <v>-0.02137601372924281</v>
       </c>
       <c r="D76">
-        <v>-0.01888872691187604</v>
+        <v>0.02427080097573074</v>
       </c>
       <c r="E76">
-        <v>0.01766726596075937</v>
+        <v>0.01896009662727717</v>
       </c>
       <c r="F76">
-        <v>0.2127131829956693</v>
+        <v>-0.0303235785137796</v>
       </c>
       <c r="G76">
-        <v>0.09151371161878007</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.03115660013476082</v>
+      </c>
+      <c r="H76">
+        <v>0.05250167460229069</v>
+      </c>
+      <c r="I76">
+        <v>-0.1326226081962203</v>
+      </c>
+      <c r="J76">
+        <v>0.03886415864010761</v>
+      </c>
+      <c r="K76">
+        <v>-0.01410447410197741</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.09077879391891719</v>
+        <v>-0.07385337902376785</v>
       </c>
       <c r="C77">
-        <v>0.01382316308119184</v>
+        <v>-0.02807971431048871</v>
       </c>
       <c r="D77">
-        <v>-0.04602751019768764</v>
+        <v>-0.02237795285841203</v>
       </c>
       <c r="E77">
-        <v>0.05721328554693571</v>
+        <v>0.01499900914376404</v>
       </c>
       <c r="F77">
-        <v>-0.1585239585862128</v>
+        <v>-0.0367891665880291</v>
       </c>
       <c r="G77">
-        <v>-0.1623575092601099</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03922372130218373</v>
+      </c>
+      <c r="H77">
+        <v>-0.2249661223800746</v>
+      </c>
+      <c r="I77">
+        <v>0.1508961482207775</v>
+      </c>
+      <c r="J77">
+        <v>0.03192400240589024</v>
+      </c>
+      <c r="K77">
+        <v>-0.1978136442674136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.2167408279570081</v>
+        <v>-0.1517197065530994</v>
       </c>
       <c r="C78">
-        <v>-0.07172032667268559</v>
+        <v>-0.0977684120538785</v>
       </c>
       <c r="D78">
-        <v>-0.0681888582941083</v>
+        <v>0.09308194146592152</v>
       </c>
       <c r="E78">
-        <v>0.1821412944830582</v>
+        <v>-0.2094591383075392</v>
       </c>
       <c r="F78">
-        <v>0.0275941018836492</v>
+        <v>-0.1444649979344125</v>
       </c>
       <c r="G78">
-        <v>-0.1243271832011788</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.7168827646672236</v>
+      </c>
+      <c r="H78">
+        <v>-0.4950554131294417</v>
+      </c>
+      <c r="I78">
+        <v>-0.2034852173058181</v>
+      </c>
+      <c r="J78">
+        <v>-0.08939314595452069</v>
+      </c>
+      <c r="K78">
+        <v>-0.0279155904901987</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1354428998670263</v>
+        <v>-0.1370323467581163</v>
       </c>
       <c r="C79">
-        <v>-0.01117133113779956</v>
+        <v>-0.04408975337162928</v>
       </c>
       <c r="D79">
-        <v>-0.0006563753707980433</v>
+        <v>-0.0103440004191581</v>
       </c>
       <c r="E79">
-        <v>-0.01822276708236402</v>
+        <v>0.01325813283439303</v>
       </c>
       <c r="F79">
-        <v>0.1620764978047545</v>
+        <v>0.001942066115339884</v>
       </c>
       <c r="G79">
-        <v>0.003820494739447007</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.0469635842765161</v>
+      </c>
+      <c r="H79">
+        <v>0.04870834373043646</v>
+      </c>
+      <c r="I79">
+        <v>-0.156857244447457</v>
+      </c>
+      <c r="J79">
+        <v>0.05606451329904237</v>
+      </c>
+      <c r="K79">
+        <v>-0.06953639068461991</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.03432462047934713</v>
+        <v>-0.06182098814613654</v>
       </c>
       <c r="C80">
-        <v>-0.009377081260185957</v>
+        <v>-0.03862140382229882</v>
       </c>
       <c r="D80">
-        <v>-0.01864866598979735</v>
+        <v>0.04081218204964816</v>
       </c>
       <c r="E80">
-        <v>-0.02775650962369872</v>
+        <v>0.06021546585061328</v>
       </c>
       <c r="F80">
-        <v>-0.02133235688746757</v>
+        <v>0.001475812275320004</v>
       </c>
       <c r="G80">
-        <v>-0.06189045532391606</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.006767379548035067</v>
+      </c>
+      <c r="H80">
+        <v>-0.07058829629380182</v>
+      </c>
+      <c r="I80">
+        <v>-0.01326933535677011</v>
+      </c>
+      <c r="J80">
+        <v>0.04888511367710111</v>
+      </c>
+      <c r="K80">
+        <v>0.1434366801433928</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1087723535862439</v>
+        <v>-0.1323706852882107</v>
       </c>
       <c r="C81">
-        <v>-0.007856632366267565</v>
+        <v>-0.05095913201443627</v>
       </c>
       <c r="D81">
-        <v>-0.01163466378606202</v>
+        <v>0.002866550338019102</v>
       </c>
       <c r="E81">
-        <v>-0.01489666062126148</v>
+        <v>0.01350508440299957</v>
       </c>
       <c r="F81">
-        <v>0.1387370914701336</v>
+        <v>-0.01124702969421013</v>
       </c>
       <c r="G81">
-        <v>0.03428519966586477</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.05803167705431374</v>
+      </c>
+      <c r="H81">
+        <v>0.02152943470968902</v>
+      </c>
+      <c r="I81">
+        <v>-0.154458301657343</v>
+      </c>
+      <c r="J81">
+        <v>0.02628292679954063</v>
+      </c>
+      <c r="K81">
+        <v>-0.009719245763522719</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1082933317745867</v>
+        <v>-0.145413592606966</v>
       </c>
       <c r="C82">
-        <v>-0.02796933516608404</v>
+        <v>-0.04559151937097441</v>
       </c>
       <c r="D82">
-        <v>-0.05648252460766755</v>
+        <v>-0.00184525547783736</v>
       </c>
       <c r="E82">
-        <v>-0.05809070186362059</v>
+        <v>0.06381303312124963</v>
       </c>
       <c r="F82">
-        <v>0.2127558042560253</v>
+        <v>-0.0007769742953034844</v>
       </c>
       <c r="G82">
-        <v>-0.0006285225169828552</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.07175492141820801</v>
+      </c>
+      <c r="H82">
+        <v>0.1100127697398637</v>
+      </c>
+      <c r="I82">
+        <v>-0.2686419544601107</v>
+      </c>
+      <c r="J82">
+        <v>0.008490084048107773</v>
+      </c>
+      <c r="K82">
+        <v>0.02800008596440338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.1044657374025761</v>
+        <v>-0.09235649242514216</v>
       </c>
       <c r="C83">
-        <v>-0.05691718023661162</v>
+        <v>-0.08571191680496322</v>
       </c>
       <c r="D83">
-        <v>-0.05682342009434401</v>
+        <v>-0.002431970831530799</v>
       </c>
       <c r="E83">
-        <v>-0.02311952500439076</v>
+        <v>0.003827329716832456</v>
       </c>
       <c r="F83">
-        <v>-0.0824802325282209</v>
+        <v>-0.02208607546586245</v>
       </c>
       <c r="G83">
-        <v>-0.08280268540994881</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.01844734531847447</v>
+      </c>
+      <c r="H83">
+        <v>-0.06862305251419618</v>
+      </c>
+      <c r="I83">
+        <v>0.03550487418829373</v>
+      </c>
+      <c r="J83">
+        <v>0.1668353367898715</v>
+      </c>
+      <c r="K83">
+        <v>0.06875944262534517</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.04896448915068174</v>
+        <v>-0.05681596075105228</v>
       </c>
       <c r="C84">
-        <v>-0.01978792449958661</v>
+        <v>0.01089195368090127</v>
       </c>
       <c r="D84">
-        <v>0.04893683421342249</v>
+        <v>-0.02592211226065485</v>
       </c>
       <c r="E84">
-        <v>0.02357214456177458</v>
+        <v>0.02817612597221257</v>
       </c>
       <c r="F84">
-        <v>0.01876350560211896</v>
+        <v>0.01707126515171096</v>
       </c>
       <c r="G84">
-        <v>0.02665718482834004</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.04767570657387851</v>
+      </c>
+      <c r="H84">
+        <v>0.008863059399077632</v>
+      </c>
+      <c r="I84">
+        <v>0.07593442516455182</v>
+      </c>
+      <c r="J84">
+        <v>-0.3481824374401586</v>
+      </c>
+      <c r="K84">
+        <v>0.192940574094002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1004901103980454</v>
+        <v>-0.1184983178844753</v>
       </c>
       <c r="C85">
-        <v>-0.01960266634493899</v>
+        <v>-0.03502627286039414</v>
       </c>
       <c r="D85">
-        <v>-0.02403701097366106</v>
+        <v>-0.004890363772582054</v>
       </c>
       <c r="E85">
-        <v>-0.02133582269038676</v>
+        <v>0.0325091442268519</v>
       </c>
       <c r="F85">
-        <v>0.192259316320636</v>
+        <v>-0.01922232909472483</v>
       </c>
       <c r="G85">
-        <v>0.01893049174149727</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.03832940881438548</v>
+      </c>
+      <c r="H85">
+        <v>0.03481178659065123</v>
+      </c>
+      <c r="I85">
+        <v>-0.1924314069232827</v>
+      </c>
+      <c r="J85">
+        <v>0.05100792690985286</v>
+      </c>
+      <c r="K85">
+        <v>-0.06095117191253092</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.06935675713543198</v>
+        <v>-0.1293315712016102</v>
       </c>
       <c r="C86">
-        <v>-0.02243886080044401</v>
+        <v>0.005866655560661161</v>
       </c>
       <c r="D86">
-        <v>-0.05029928956132383</v>
+        <v>-0.9007099241519018</v>
       </c>
       <c r="E86">
-        <v>0.05643271640179684</v>
+        <v>-0.2764610672503751</v>
       </c>
       <c r="F86">
-        <v>-0.01677711234837717</v>
+        <v>0.1434463590679061</v>
       </c>
       <c r="G86">
-        <v>-0.1049071463094129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.05181179464692374</v>
+      </c>
+      <c r="H86">
+        <v>-0.09647156296306769</v>
+      </c>
+      <c r="I86">
+        <v>-0.05830727272456876</v>
+      </c>
+      <c r="J86">
+        <v>-0.05486139433853263</v>
+      </c>
+      <c r="K86">
+        <v>0.05346629023777247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1033159957445562</v>
+        <v>-0.1194177498671049</v>
       </c>
       <c r="C87">
-        <v>-0.05906113770389687</v>
+        <v>-0.09407335388554597</v>
       </c>
       <c r="D87">
-        <v>-0.01825487105759309</v>
+        <v>-0.01127102480491715</v>
       </c>
       <c r="E87">
-        <v>0.06133501691121229</v>
+        <v>0.01623472991775857</v>
       </c>
       <c r="F87">
-        <v>-0.02443806627817115</v>
+        <v>-0.02609353421741257</v>
       </c>
       <c r="G87">
-        <v>-0.1138028941249244</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.05621168712569263</v>
+      </c>
+      <c r="H87">
+        <v>-0.1306379873533974</v>
+      </c>
+      <c r="I87">
+        <v>0.1236759155842993</v>
+      </c>
+      <c r="J87">
+        <v>0.08129584447151791</v>
+      </c>
+      <c r="K87">
+        <v>-0.0215443000805352</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.06889966694321042</v>
+        <v>-0.05786917802068638</v>
       </c>
       <c r="C88">
-        <v>-0.0369065881319011</v>
+        <v>-0.04093557771452132</v>
       </c>
       <c r="D88">
-        <v>-0.02127871321900465</v>
+        <v>0.01398211720814057</v>
       </c>
       <c r="E88">
-        <v>0.01106036255585521</v>
+        <v>0.04821742165018237</v>
       </c>
       <c r="F88">
-        <v>0.001925759922381245</v>
+        <v>0.01507212008447137</v>
       </c>
       <c r="G88">
-        <v>-0.05976163236023346</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02243426993593725</v>
+      </c>
+      <c r="H88">
+        <v>-0.023821587832347</v>
+      </c>
+      <c r="I88">
+        <v>0.004367333871213104</v>
+      </c>
+      <c r="J88">
+        <v>-0.003141331793630178</v>
+      </c>
+      <c r="K88">
+        <v>0.01364649185239347</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.09506200010431846</v>
+        <v>-0.1570021609800908</v>
       </c>
       <c r="C89">
-        <v>0.3696272725871605</v>
+        <v>0.373220878982418</v>
       </c>
       <c r="D89">
-        <v>-0.1115202795861707</v>
+        <v>0.02152937441725576</v>
       </c>
       <c r="E89">
-        <v>0.01720225364333179</v>
+        <v>0.006576058119499387</v>
       </c>
       <c r="F89">
-        <v>-0.06626913748739953</v>
+        <v>-0.07693654412980062</v>
       </c>
       <c r="G89">
-        <v>-0.004057066151811803</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02502472482558813</v>
+      </c>
+      <c r="H89">
+        <v>-0.02859291249162417</v>
+      </c>
+      <c r="I89">
+        <v>0.02376779055990806</v>
+      </c>
+      <c r="J89">
+        <v>-0.005643856619671937</v>
+      </c>
+      <c r="K89">
+        <v>0.07100713817264868</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.07548800854164056</v>
+        <v>-0.1213419296131259</v>
       </c>
       <c r="C90">
-        <v>0.2939987755121372</v>
+        <v>0.2873506038553048</v>
       </c>
       <c r="D90">
-        <v>-0.05265852742781017</v>
+        <v>0.007238112737369479</v>
       </c>
       <c r="E90">
-        <v>0.04429989557617142</v>
+        <v>0.02888367527055314</v>
       </c>
       <c r="F90">
-        <v>-0.05320331303158898</v>
+        <v>-0.01135371955499377</v>
       </c>
       <c r="G90">
-        <v>-0.04654604807117208</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02970860065976135</v>
+      </c>
+      <c r="H90">
+        <v>-0.03172026966791709</v>
+      </c>
+      <c r="I90">
+        <v>0.05592155902278344</v>
+      </c>
+      <c r="J90">
+        <v>-0.04932987963933152</v>
+      </c>
+      <c r="K90">
+        <v>-0.01646964630522327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.08339571598952455</v>
+        <v>-0.08379863661257153</v>
       </c>
       <c r="C91">
-        <v>-0.02064954542881225</v>
+        <v>-0.03702484247925258</v>
       </c>
       <c r="D91">
-        <v>-0.004059614903594301</v>
+        <v>-0.0166658670115482</v>
       </c>
       <c r="E91">
-        <v>-0.01591877528702956</v>
+        <v>0.01159834072754804</v>
       </c>
       <c r="F91">
-        <v>0.07827273813867507</v>
+        <v>-0.0112269025074161</v>
       </c>
       <c r="G91">
-        <v>0.06278679372971936</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.01444471085585006</v>
+      </c>
+      <c r="H91">
+        <v>0.04737201656960405</v>
+      </c>
+      <c r="I91">
+        <v>-0.1175959993387083</v>
+      </c>
+      <c r="J91">
+        <v>0.03709310982612146</v>
+      </c>
+      <c r="K91">
+        <v>-0.01591610149203354</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.07114428422774562</v>
+        <v>-0.1307786424476182</v>
       </c>
       <c r="C92">
-        <v>0.3380114769814475</v>
+        <v>0.3360576497439195</v>
       </c>
       <c r="D92">
-        <v>-0.07560231052640493</v>
+        <v>0.02280460436334598</v>
       </c>
       <c r="E92">
-        <v>0.02077503066245281</v>
+        <v>-0.001454475553927188</v>
       </c>
       <c r="F92">
-        <v>-0.0387768278400691</v>
+        <v>-0.04701142512427094</v>
       </c>
       <c r="G92">
-        <v>0.02819812430088137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0004055367279579689</v>
+      </c>
+      <c r="H92">
+        <v>-0.06372850062206811</v>
+      </c>
+      <c r="I92">
+        <v>-0.02957550365797857</v>
+      </c>
+      <c r="J92">
+        <v>-0.02381649007780247</v>
+      </c>
+      <c r="K92">
+        <v>0.00398262103259586</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.08573558733192409</v>
+        <v>-0.1255814438017515</v>
       </c>
       <c r="C93">
-        <v>0.2930499578161898</v>
+        <v>0.3161195719291167</v>
       </c>
       <c r="D93">
-        <v>-0.05134801675851102</v>
+        <v>-0.01200217765884914</v>
       </c>
       <c r="E93">
-        <v>0.01084617228468827</v>
+        <v>0.04717952890408936</v>
       </c>
       <c r="F93">
-        <v>-0.02364987133857135</v>
+        <v>0.002609617041561501</v>
       </c>
       <c r="G93">
-        <v>0.01611858948969397</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.02996673191164777</v>
+      </c>
+      <c r="H93">
+        <v>-0.00183796039892141</v>
+      </c>
+      <c r="I93">
+        <v>0.02324799975278291</v>
+      </c>
+      <c r="J93">
+        <v>-0.01351653758982295</v>
+      </c>
+      <c r="K93">
+        <v>-0.002661227963187888</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.092061203898297</v>
+        <v>-0.1262234564076704</v>
       </c>
       <c r="C94">
-        <v>-0.04594606786717072</v>
+        <v>-0.0562458728088975</v>
       </c>
       <c r="D94">
-        <v>0.006687344014861186</v>
+        <v>0.02580957752853951</v>
       </c>
       <c r="E94">
-        <v>-0.004699662990920141</v>
+        <v>0.01120438640999191</v>
       </c>
       <c r="F94">
-        <v>0.1274535820644065</v>
+        <v>-0.0244037206086735</v>
       </c>
       <c r="G94">
-        <v>0.05914255266730407</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.01934390689946491</v>
+      </c>
+      <c r="H94">
+        <v>0.08539784644893536</v>
+      </c>
+      <c r="I94">
+        <v>-0.1344994074904304</v>
+      </c>
+      <c r="J94">
+        <v>-0.002596474021566796</v>
+      </c>
+      <c r="K94">
+        <v>-0.02051418474882015</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.1374250223458365</v>
+        <v>-0.1192922501067082</v>
       </c>
       <c r="C95">
-        <v>-0.07203633564040668</v>
+        <v>-0.05099419857526558</v>
       </c>
       <c r="D95">
-        <v>-0.06760531467407216</v>
+        <v>0.008806769103025226</v>
       </c>
       <c r="E95">
-        <v>0.03046159373150397</v>
+        <v>0.01091875642189364</v>
       </c>
       <c r="F95">
-        <v>-0.05245865012925267</v>
+        <v>-0.06860535623620584</v>
       </c>
       <c r="G95">
-        <v>-0.105437803298949</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.01515276502430477</v>
+      </c>
+      <c r="H95">
+        <v>-0.1257308723193244</v>
+      </c>
+      <c r="I95">
+        <v>0.2079285923477424</v>
+      </c>
+      <c r="J95">
+        <v>0.02675531868855306</v>
+      </c>
+      <c r="K95">
+        <v>0.1916691650324193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.009240484666487312</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-7.748234125563672e-05</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.001092771651578547</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.006240512730481851</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.002907576252275844</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>-0.008058085391307894</v>
+      </c>
+      <c r="H96">
+        <v>-0.01551576307049077</v>
+      </c>
+      <c r="I96">
+        <v>0.01176776451299833</v>
+      </c>
+      <c r="J96">
+        <v>0.008332976806926351</v>
+      </c>
+      <c r="K96">
+        <v>-0.02060004918980832</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.2016749107220146</v>
+        <v>-0.1876307129300502</v>
       </c>
       <c r="C97">
-        <v>0.1539668385359656</v>
+        <v>0.0003010258451046561</v>
       </c>
       <c r="D97">
-        <v>0.901345264451462</v>
+        <v>0.3169561179755611</v>
       </c>
       <c r="E97">
-        <v>0.02907486106868895</v>
+        <v>-0.6394876586162976</v>
       </c>
       <c r="F97">
-        <v>-0.04306508946133022</v>
+        <v>0.6219862741154214</v>
       </c>
       <c r="G97">
-        <v>-0.03778093247509023</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.05439013590267137</v>
+      </c>
+      <c r="H97">
+        <v>0.09501931113584919</v>
+      </c>
+      <c r="I97">
+        <v>0.05954140572805252</v>
+      </c>
+      <c r="J97">
+        <v>-0.05043124549558866</v>
+      </c>
+      <c r="K97">
+        <v>0.03588425443272559</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.3173683491124256</v>
+        <v>-0.2695014444105087</v>
       </c>
       <c r="C98">
-        <v>-0.07364857779104517</v>
+        <v>-0.07042880018633381</v>
       </c>
       <c r="D98">
-        <v>-0.05270068508280983</v>
+        <v>-0.04119995346235948</v>
       </c>
       <c r="E98">
-        <v>-0.2453338539153184</v>
+        <v>0.01374586266038696</v>
       </c>
       <c r="F98">
-        <v>-0.2098785553983772</v>
+        <v>-0.03800754298323843</v>
       </c>
       <c r="G98">
-        <v>0.2664431929003301</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.215953301076741</v>
+      </c>
+      <c r="H98">
+        <v>0.2621016638520337</v>
+      </c>
+      <c r="I98">
+        <v>0.05288569895318541</v>
+      </c>
+      <c r="J98">
+        <v>0.3208168136058661</v>
+      </c>
+      <c r="K98">
+        <v>0.5443378366515031</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.08246640485645346</v>
+        <v>-0.05539815934445072</v>
       </c>
       <c r="C99">
-        <v>-0.02839050204425804</v>
+        <v>-0.01285487221344001</v>
       </c>
       <c r="D99">
-        <v>-0.01114698540161241</v>
+        <v>0.03244285194258106</v>
       </c>
       <c r="E99">
-        <v>-0.0158350535516905</v>
+        <v>0.00548777340477865</v>
       </c>
       <c r="F99">
-        <v>0.00793539635954967</v>
+        <v>-0.03246283646389689</v>
       </c>
       <c r="G99">
-        <v>-0.02226933687766059</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.01400426369113966</v>
+      </c>
+      <c r="H99">
+        <v>-0.006898199802695892</v>
+      </c>
+      <c r="I99">
+        <v>-0.01877259904626292</v>
+      </c>
+      <c r="J99">
+        <v>-0.01501679917698941</v>
+      </c>
+      <c r="K99">
+        <v>-0.006475392186068455</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.02075509586081533</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.03456245122321387</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.09686312378162294</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.03983331097776464</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.03705327021807296</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.05801556901912308</v>
+      </c>
+      <c r="H100">
+        <v>0.00744055612316691</v>
+      </c>
+      <c r="I100">
+        <v>-0.05036525367739418</v>
+      </c>
+      <c r="J100">
+        <v>0.0489555608576444</v>
+      </c>
+      <c r="K100">
+        <v>0.2076111292479296</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05796693000299465</v>
+        <v>-0.04092474028305425</v>
       </c>
       <c r="C101">
-        <v>-0.006761504384945705</v>
+        <v>-0.01725560314661253</v>
       </c>
       <c r="D101">
-        <v>-0.03066487525336231</v>
+        <v>0.005148439322969903</v>
       </c>
       <c r="E101">
-        <v>0.04291292710368609</v>
+        <v>0.03212351763219368</v>
       </c>
       <c r="F101">
-        <v>0.03664510710568675</v>
+        <v>-0.01405522542618789</v>
       </c>
       <c r="G101">
-        <v>-0.0439417918188145</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.08923208694988392</v>
+      </c>
+      <c r="H101">
+        <v>-0.05674703643080581</v>
+      </c>
+      <c r="I101">
+        <v>-0.008016137897873874</v>
+      </c>
+      <c r="J101">
+        <v>0.05607168300950938</v>
+      </c>
+      <c r="K101">
+        <v>0.04066515373078379</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
